--- a/dataset_v1/task_sheet_answers/RampUpAndDown/5_RampUpAndDown/5_RampUpAndDown_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/RampUpAndDown/5_RampUpAndDown/5_RampUpAndDown_gt1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -59,22 +59,22 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -147,16 +147,16 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -169,7 +169,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr altLang="zh-CN" lang="en-US"/>
               <a:t>Acc. Vs. Up Block</a:t>
             </a:r>
           </a:p>
@@ -177,18 +177,18 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -201,7 +201,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
@@ -227,7 +227,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+            <a:ln cap="rnd" w="28575">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -238,7 +238,7 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -459,11 +459,11 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="1000">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -476,7 +476,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr altLang="zh-CN" lang="en-US"/>
                   <a:t>Hanging mass (kilograms)</a:t>
                 </a:r>
               </a:p>
@@ -484,18 +484,18 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <txPr>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+            <a:lstStyle/>
+            <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="1000">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -508,7 +508,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="zh-CN"/>
             </a:p>
@@ -519,8 +519,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -532,11 +532,11 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -549,7 +549,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -570,7 +570,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -585,11 +585,11 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="1000">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -602,7 +602,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr altLang="zh-CN" lang="en-US"/>
                   <a:t>Acceleration of Block up Ramp</a:t>
                 </a:r>
               </a:p>
@@ -610,18 +610,18 @@
           </tx>
           <overlay val="0"/>
           <spPr>
-            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <txPr>
-            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:bodyPr anchor="ctr" anchorCtr="1" rot="-5400000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+            <a:lstStyle/>
+            <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="1000">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -634,7 +634,7 @@
                 </a:defRPr>
               </a:pPr>
               <a:r>
-                <a:t/>
+                <a:t>None</a:t>
               </a:r>
               <a:endParaRPr lang="zh-CN"/>
             </a:p>
@@ -645,18 +645,18 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -669,7 +669,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -682,26 +682,11 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -721,9 +706,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1028,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1041,8 +1026,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1060,11 +1045,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="18.44140625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="27.6640625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="19" customWidth="1" style="1" min="3" max="3"/>
-    <col width="30.5546875" customWidth="1" style="1" min="4" max="4"/>
-    <col width="16" customWidth="1" style="1" min="5" max="5"/>
+    <col customWidth="1" max="1" min="1" style="1" width="18.44140625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="27.6640625"/>
+    <col customWidth="1" max="3" min="3" style="1" width="19"/>
+    <col customWidth="1" max="4" min="4" style="1" width="30.5546875"/>
+    <col customWidth="1" max="5" min="5" style="1" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1442,6 +1427,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>